--- a/data/trans_orig/P14B04-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14B04-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{695B9AC0-9FB6-4F57-A4EA-8CED171C29CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD41413C-19DB-4239-9586-58A3CC06DFD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0552D724-7B54-4B48-85AF-BE330ECB0C7F}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6D3F483B-D500-4AEC-9C0B-C2C3D937D18D}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="472">
   <si>
     <t>Población cuyo colesterol alto le limita en 2012 (Tasa respuesta: 12,17%)</t>
   </si>
@@ -85,55 +85,55 @@
     <t>53,45%</t>
   </si>
   <si>
-    <t>38,67%</t>
-  </si>
-  <si>
-    <t>67,44%</t>
+    <t>39,2%</t>
+  </si>
+  <si>
+    <t>67,12%</t>
   </si>
   <si>
     <t>60,42%</t>
   </si>
   <si>
-    <t>48,02%</t>
-  </si>
-  <si>
-    <t>70,46%</t>
+    <t>48,6%</t>
+  </si>
+  <si>
+    <t>71,74%</t>
   </si>
   <si>
     <t>57,3%</t>
   </si>
   <si>
-    <t>49,44%</t>
-  </si>
-  <si>
-    <t>65,91%</t>
+    <t>49,17%</t>
+  </si>
+  <si>
+    <t>66,49%</t>
   </si>
   <si>
     <t>46,55%</t>
   </si>
   <si>
-    <t>32,56%</t>
-  </si>
-  <si>
-    <t>61,33%</t>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>60,8%</t>
   </si>
   <si>
     <t>39,58%</t>
   </si>
   <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>51,98%</t>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>51,4%</t>
   </si>
   <si>
     <t>42,7%</t>
   </si>
   <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>50,56%</t>
+    <t>33,51%</t>
+  </si>
+  <si>
+    <t>50,83%</t>
   </si>
   <si>
     <t>100%</t>
@@ -145,55 +145,55 @@
     <t>28,91%</t>
   </si>
   <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>48,4%</t>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>46,02%</t>
   </si>
   <si>
     <t>24,88%</t>
   </si>
   <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>41,45%</t>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>41,22%</t>
   </si>
   <si>
     <t>26,64%</t>
   </si>
   <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>39,02%</t>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>37,96%</t>
   </si>
   <si>
     <t>71,09%</t>
   </si>
   <si>
-    <t>51,6%</t>
-  </si>
-  <si>
-    <t>85,12%</t>
+    <t>53,98%</t>
+  </si>
+  <si>
+    <t>85,13%</t>
   </si>
   <si>
     <t>75,12%</t>
   </si>
   <si>
-    <t>58,55%</t>
-  </si>
-  <si>
-    <t>87,66%</t>
+    <t>58,78%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
   </si>
   <si>
     <t>73,36%</t>
   </si>
   <si>
-    <t>60,98%</t>
-  </si>
-  <si>
-    <t>82,6%</t>
+    <t>62,04%</t>
+  </si>
+  <si>
+    <t>82,27%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -202,55 +202,55 @@
     <t>17,19%</t>
   </si>
   <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
   </si>
   <si>
     <t>20,41%</t>
   </si>
   <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
   </si>
   <si>
     <t>18,99%</t>
   </si>
   <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
   </si>
   <si>
     <t>82,81%</t>
   </si>
   <si>
-    <t>72,3%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
+    <t>72,2%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
   </si>
   <si>
     <t>79,59%</t>
   </si>
   <si>
-    <t>70,7%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
+    <t>70,22%</t>
+  </si>
+  <si>
+    <t>86,91%</t>
   </si>
   <si>
     <t>81,01%</t>
   </si>
   <si>
-    <t>73,64%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
+    <t>73,95%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -259,55 +259,55 @@
     <t>15,66%</t>
   </si>
   <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
   </si>
   <si>
     <t>10,21%</t>
   </si>
   <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
   </si>
   <si>
     <t>12,5%</t>
   </si>
   <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
   </si>
   <si>
     <t>84,34%</t>
   </si>
   <si>
-    <t>68,23%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
+    <t>68,29%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
   </si>
   <si>
     <t>89,79%</t>
   </si>
   <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
+    <t>78,79%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
   </si>
   <si>
     <t>87,5%</t>
   </si>
   <si>
-    <t>78,25%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
+    <t>77,94%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -316,1156 +316,1144 @@
     <t>13,35%</t>
   </si>
   <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>75,21%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
+  </si>
+  <si>
+    <t>77,21%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
+  </si>
+  <si>
+    <t>78,91%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>87,69%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>89,03%</t>
+  </si>
+  <si>
+    <t>80,0%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
+  </si>
+  <si>
+    <t>82,42%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>40,49%</t>
+  </si>
+  <si>
+    <t>41,92%</t>
+  </si>
+  <si>
+    <t>51,8%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>44,7%</t>
+  </si>
+  <si>
+    <t>72,33%</t>
+  </si>
+  <si>
+    <t>59,51%</t>
+  </si>
+  <si>
+    <t>83,1%</t>
+  </si>
+  <si>
+    <t>58,08%</t>
+  </si>
+  <si>
+    <t>48,2%</t>
+  </si>
+  <si>
+    <t>63,94%</t>
+  </si>
+  <si>
+    <t>55,3%</t>
+  </si>
+  <si>
+    <t>71,62%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>75,19%</t>
+  </si>
+  <si>
+    <t>70,13%</t>
+  </si>
+  <si>
+    <t>79,36%</t>
+  </si>
+  <si>
+    <t>71,66%</t>
+  </si>
+  <si>
+    <t>67,55%</t>
+  </si>
+  <si>
+    <t>75,81%</t>
+  </si>
+  <si>
+    <t>73,23%</t>
+  </si>
+  <si>
+    <t>70,15%</t>
+  </si>
+  <si>
+    <t>76,14%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población cuyo colesterol alto le limita en 2015 (Tasa respuesta: 12,06%)</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>88,25%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>85,46%</t>
+  </si>
+  <si>
+    <t>69,94%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>81,0%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>29,86%</t>
+  </si>
+  <si>
+    <t>77,9%</t>
+  </si>
+  <si>
+    <t>65,03%</t>
+  </si>
+  <si>
+    <t>87,1%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
+  </si>
+  <si>
+    <t>66,4%</t>
+  </si>
+  <si>
+    <t>77,73%</t>
+  </si>
+  <si>
+    <t>70,14%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>80,57%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>72,01%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>73,32%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>85,45%</t>
+  </si>
+  <si>
+    <t>77,3%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>45,86%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>37,04%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>36,01%</t>
+  </si>
+  <si>
+    <t>72,0%</t>
+  </si>
+  <si>
+    <t>54,14%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>78,69%</t>
+  </si>
+  <si>
+    <t>62,96%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>75,62%</t>
+  </si>
+  <si>
+    <t>63,99%</t>
+  </si>
+  <si>
+    <t>85,31%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>46,93%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>72,97%</t>
+  </si>
+  <si>
+    <t>53,07%</t>
+  </si>
+  <si>
+    <t>86,81%</t>
+  </si>
+  <si>
+    <t>77,07%</t>
+  </si>
+  <si>
+    <t>89,36%</t>
+  </si>
+  <si>
+    <t>75,09%</t>
+  </si>
+  <si>
+    <t>63,4%</t>
+  </si>
+  <si>
+    <t>85,22%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>77,25%</t>
+  </si>
+  <si>
+    <t>65,0%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>79,55%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>83,31%</t>
+  </si>
+  <si>
+    <t>76,07%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>77,05%</t>
+  </si>
+  <si>
+    <t>67,04%</t>
+  </si>
+  <si>
+    <t>85,07%</t>
+  </si>
+  <si>
+    <t>78,64%</t>
+  </si>
+  <si>
+    <t>69,04%</t>
+  </si>
+  <si>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>77,99%</t>
+  </si>
+  <si>
+    <t>71,47%</t>
+  </si>
+  <si>
+    <t>84,09%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>81,1%</t>
+  </si>
+  <si>
+    <t>76,89%</t>
+  </si>
+  <si>
+    <t>84,71%</t>
+  </si>
+  <si>
+    <t>83,51%</t>
+  </si>
+  <si>
+    <t>79,53%</t>
+  </si>
+  <si>
+    <t>87,07%</t>
+  </si>
+  <si>
+    <t>79,61%</t>
+  </si>
+  <si>
+    <t>85,08%</t>
+  </si>
+  <si>
+    <t>Población cuyo colesterol alto le limita en 2023 (Tasa respuesta: 19,46%)</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>89,25%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>78,07%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>84,1%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>84,28%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
     <t>5,04%</t>
   </si>
   <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>72,66%</t>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
   </si>
   <si>
     <t>94,96%</t>
   </si>
   <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>77,18%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>79,21%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
   </si>
   <si>
     <t>7,15%</t>
   </si>
   <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>87,69%</t>
-  </si>
-  <si>
-    <t>77,94%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>89,03%</t>
-  </si>
-  <si>
-    <t>80,16%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>88,38%</t>
-  </si>
-  <si>
-    <t>82,12%</t>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>78,82%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
   </si>
   <si>
     <t>92,85%</t>
   </si>
   <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>42,44%</t>
-  </si>
-  <si>
-    <t>41,92%</t>
-  </si>
-  <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>52,82%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>44,59%</t>
-  </si>
-  <si>
-    <t>72,33%</t>
-  </si>
-  <si>
-    <t>57,56%</t>
-  </si>
-  <si>
-    <t>82,1%</t>
-  </si>
-  <si>
-    <t>58,08%</t>
-  </si>
-  <si>
-    <t>47,18%</t>
-  </si>
-  <si>
-    <t>67,63%</t>
-  </si>
-  <si>
-    <t>63,94%</t>
-  </si>
-  <si>
-    <t>55,41%</t>
-  </si>
-  <si>
-    <t>71,23%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>75,19%</t>
-  </si>
-  <si>
-    <t>70,56%</t>
-  </si>
-  <si>
-    <t>80,06%</t>
-  </si>
-  <si>
-    <t>71,66%</t>
-  </si>
-  <si>
-    <t>67,51%</t>
-  </si>
-  <si>
-    <t>75,56%</t>
-  </si>
-  <si>
-    <t>73,23%</t>
-  </si>
-  <si>
-    <t>69,59%</t>
-  </si>
-  <si>
-    <t>76,39%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población cuyo colesterol alto le limita en 2015 (Tasa respuesta: 12,06%)</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>85,46%</t>
-  </si>
-  <si>
-    <t>69,18%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>81,07%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>77,9%</t>
-  </si>
-  <si>
-    <t>64,89%</t>
-  </si>
-  <si>
-    <t>86,92%</t>
-  </si>
-  <si>
-    <t>77,6%</t>
-  </si>
-  <si>
-    <t>66,09%</t>
-  </si>
-  <si>
-    <t>87,43%</t>
-  </si>
-  <si>
-    <t>77,73%</t>
-  </si>
-  <si>
-    <t>69,85%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>80,4%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>28,86%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
-  </si>
-  <si>
-    <t>71,14%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>72,73%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>85,45%</t>
-  </si>
-  <si>
-    <t>76,01%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>46,8%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>37,59%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>35,98%</t>
-  </si>
-  <si>
-    <t>72,0%</t>
-  </si>
-  <si>
-    <t>53,2%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>78,69%</t>
-  </si>
-  <si>
-    <t>62,41%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>75,62%</t>
-  </si>
-  <si>
-    <t>64,02%</t>
-  </si>
-  <si>
-    <t>85,67%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>48,11%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>37,8%</t>
-  </si>
-  <si>
-    <t>72,97%</t>
-  </si>
-  <si>
-    <t>51,89%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>77,07%</t>
-  </si>
-  <si>
-    <t>57,62%</t>
-  </si>
-  <si>
-    <t>89,26%</t>
-  </si>
-  <si>
-    <t>75,09%</t>
-  </si>
-  <si>
-    <t>62,2%</t>
-  </si>
-  <si>
-    <t>85,03%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>35,36%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>77,25%</t>
-  </si>
-  <si>
-    <t>64,64%</t>
-  </si>
-  <si>
-    <t>86,79%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>80,74%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>83,31%</t>
-  </si>
-  <si>
-    <t>75,71%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
+    <t>87,19%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>86,45%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>88,12%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
   </si>
   <si>
     <t>14,02%</t>
   </si>
   <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>77,05%</t>
-  </si>
-  <si>
-    <t>66,78%</t>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
   </si>
   <si>
     <t>85,98%</t>
   </si>
   <si>
-    <t>78,64%</t>
-  </si>
-  <si>
-    <t>69,82%</t>
-  </si>
-  <si>
-    <t>86,19%</t>
-  </si>
-  <si>
-    <t>77,99%</t>
-  </si>
-  <si>
-    <t>71,29%</t>
-  </si>
-  <si>
-    <t>83,99%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>81,1%</t>
-  </si>
-  <si>
-    <t>77,04%</t>
-  </si>
-  <si>
-    <t>84,85%</t>
-  </si>
-  <si>
-    <t>83,51%</t>
-  </si>
-  <si>
-    <t>79,49%</t>
-  </si>
-  <si>
-    <t>86,84%</t>
-  </si>
-  <si>
-    <t>82,42%</t>
-  </si>
-  <si>
-    <t>79,79%</t>
-  </si>
-  <si>
-    <t>84,98%</t>
-  </si>
-  <si>
-    <t>Población cuyo colesterol alto le limita en 2023 (Tasa respuesta: 19,46%)</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>76,74%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>83,93%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>79,9%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>86,87%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>86,94%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>86,13%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>84,38%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
+    <t>96,86%</t>
   </si>
   <si>
     <t>90,45%</t>
   </si>
   <si>
-    <t>83,82%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
+    <t>83,37%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
   </si>
   <si>
     <t>91,75%</t>
   </si>
   <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
+    <t>87,08%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
   </si>
   <si>
     <t>11,99%</t>
   </si>
   <si>
-    <t>6,68%</t>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
   </si>
   <si>
     <t>6,86%</t>
   </si>
   <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
   </si>
   <si>
     <t>8,4%</t>
   </si>
   <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
   </si>
   <si>
     <t>88,01%</t>
   </si>
   <si>
-    <t>93,32%</t>
+    <t>80,43%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
   </si>
   <si>
     <t>93,14%</t>
   </si>
   <si>
-    <t>85,41%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
+    <t>86,07%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
   </si>
   <si>
     <t>91,6%</t>
   </si>
   <si>
-    <t>85,94%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
   </si>
   <si>
     <t>5,08%</t>
   </si>
   <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
   </si>
   <si>
     <t>11,69%</t>
   </si>
   <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
   </si>
   <si>
     <t>8,87%</t>
   </si>
   <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
   </si>
   <si>
     <t>94,92%</t>
   </si>
   <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
   </si>
   <si>
     <t>88,31%</t>
   </si>
   <si>
-    <t>82,78%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
+    <t>82,43%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
   </si>
   <si>
     <t>91,13%</t>
   </si>
   <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
+    <t>87,3%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
   </si>
   <si>
     <t>7,53%</t>
   </si>
   <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
   </si>
   <si>
     <t>7,34%</t>
   </si>
   <si>
-    <t>9,38%</t>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
   </si>
   <si>
     <t>7,42%</t>
   </si>
   <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
   </si>
   <si>
     <t>92,47%</t>
   </si>
   <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
   </si>
   <si>
     <t>92,66%</t>
   </si>
   <si>
-    <t>90,62%</t>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
   </si>
   <si>
     <t>92,58%</t>
   </si>
   <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
   </si>
 </sst>
 </file>
@@ -1877,7 +1865,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EE7DDFC-4954-42BD-924C-3C5AEC887A69}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9154E6CE-4E93-4796-B9EE-1822786B7D99}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3086,10 +3074,10 @@
         <v>132</v>
       </c>
       <c r="K25" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="M25" s="7">
         <v>52</v>
@@ -3098,13 +3086,13 @@
         <v>57509</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3119,13 +3107,13 @@
         <v>47486</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="H26" s="7">
         <v>50</v>
@@ -3134,13 +3122,13 @@
         <v>54502</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="K26" s="7" t="s">
-        <v>142</v>
-      </c>
       <c r="L26" s="7" t="s">
-        <v>143</v>
+        <v>82</v>
       </c>
       <c r="M26" s="7">
         <v>93</v>
@@ -3149,13 +3137,13 @@
         <v>101988</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3223,13 +3211,13 @@
         <v>95952</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="H28" s="7">
         <v>125</v>
@@ -3238,13 +3226,13 @@
         <v>136860</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="M28" s="7">
         <v>212</v>
@@ -3253,13 +3241,13 @@
         <v>232812</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3274,13 +3262,13 @@
         <v>290719</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="H29" s="7">
         <v>319</v>
@@ -3289,13 +3277,13 @@
         <v>346090</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="M29" s="7">
         <v>580</v>
@@ -3304,13 +3292,13 @@
         <v>636809</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3366,7 +3354,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -3390,7 +3378,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8037AE9B-A0E3-4CFC-8113-E95AF6D0EF92}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B3B5450-7289-437F-99D2-7C35C065BF17}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3407,7 +3395,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3514,13 +3502,13 @@
         <v>802</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -3529,13 +3517,13 @@
         <v>5767</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -3544,13 +3532,13 @@
         <v>6569</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3565,13 +3553,13 @@
         <v>36504</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="H5" s="7">
         <v>31</v>
@@ -3580,13 +3568,13 @@
         <v>33885</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="M5" s="7">
         <v>64</v>
@@ -3595,13 +3583,13 @@
         <v>70389</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3669,13 +3657,13 @@
         <v>12747</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="H7" s="7">
         <v>14</v>
@@ -3684,13 +3672,13 @@
         <v>16588</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="M7" s="7">
         <v>27</v>
@@ -3699,13 +3687,13 @@
         <v>29335</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3720,13 +3708,13 @@
         <v>44921</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="H8" s="7">
         <v>50</v>
@@ -3735,13 +3723,13 @@
         <v>57479</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="M8" s="7">
         <v>94</v>
@@ -3750,13 +3738,13 @@
         <v>102399</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3824,13 +3812,13 @@
         <v>3365</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -3839,13 +3827,13 @@
         <v>991</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -3854,13 +3842,13 @@
         <v>4356</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3875,13 +3863,13 @@
         <v>37741</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="H11" s="7">
         <v>43</v>
@@ -3890,13 +3878,13 @@
         <v>48869</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="M11" s="7">
         <v>84</v>
@@ -3905,13 +3893,13 @@
         <v>86610</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3979,13 +3967,13 @@
         <v>6858</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>219</v>
+        <v>189</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="H13" s="7">
         <v>7</v>
@@ -3994,13 +3982,13 @@
         <v>8098</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="M13" s="7">
         <v>14</v>
@@ -4009,13 +3997,13 @@
         <v>14957</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4030,13 +4018,13 @@
         <v>39609</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>228</v>
+        <v>198</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H14" s="7">
         <v>43</v>
@@ -4045,13 +4033,13 @@
         <v>48235</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="M14" s="7">
         <v>84</v>
@@ -4060,13 +4048,13 @@
         <v>87844</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4134,13 +4122,13 @@
         <v>7671</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -4149,13 +4137,13 @@
         <v>6869</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="M16" s="7">
         <v>15</v>
@@ -4164,13 +4152,13 @@
         <v>14540</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4185,13 +4173,13 @@
         <v>19724</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="H17" s="7">
         <v>25</v>
@@ -4200,13 +4188,13 @@
         <v>25365</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="M17" s="7">
         <v>45</v>
@@ -4215,13 +4203,13 @@
         <v>45089</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4289,13 +4277,13 @@
         <v>7395</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="H19" s="7">
         <v>6</v>
@@ -4304,13 +4292,13 @@
         <v>6740</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>260</v>
+        <v>132</v>
       </c>
       <c r="M19" s="7">
         <v>14</v>
@@ -4319,13 +4307,13 @@
         <v>14135</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4340,13 +4328,13 @@
         <v>19961</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="H20" s="7">
         <v>21</v>
@@ -4355,13 +4343,13 @@
         <v>22657</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>268</v>
+        <v>140</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M20" s="7">
         <v>41</v>
@@ -4370,13 +4358,13 @@
         <v>42618</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4444,13 +4432,13 @@
         <v>16394</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="H22" s="7">
         <v>7</v>
@@ -4459,13 +4447,13 @@
         <v>7745</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="M22" s="7">
         <v>21</v>
@@ -4474,13 +4462,13 @@
         <v>24139</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4495,13 +4483,13 @@
         <v>55668</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="H23" s="7">
         <v>56</v>
@@ -4510,13 +4498,13 @@
         <v>64822</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="M23" s="7">
         <v>106</v>
@@ -4525,13 +4513,13 @@
         <v>120489</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4599,13 +4587,13 @@
         <v>18233</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="H25" s="7">
         <v>20</v>
@@ -4614,13 +4602,13 @@
         <v>24611</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="M25" s="7">
         <v>38</v>
@@ -4629,13 +4617,13 @@
         <v>42844</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4650,13 +4638,13 @@
         <v>61205</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="H26" s="7">
         <v>75</v>
@@ -4665,13 +4653,13 @@
         <v>90617</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="M26" s="7">
         <v>134</v>
@@ -4680,13 +4668,13 @@
         <v>151823</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4754,13 +4742,13 @@
         <v>73465</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="H28" s="7">
         <v>67</v>
@@ -4769,13 +4757,13 @@
         <v>77410</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="M28" s="7">
         <v>140</v>
@@ -4784,13 +4772,13 @@
         <v>150875</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>315</v>
+        <v>118</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4805,13 +4793,13 @@
         <v>315333</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="H29" s="7">
         <v>344</v>
@@ -4820,13 +4808,13 @@
         <v>391928</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="M29" s="7">
         <v>652</v>
@@ -4835,13 +4823,13 @@
         <v>707261</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>324</v>
+        <v>126</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4897,7 +4885,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -4921,7 +4909,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6DF422A-D48A-4A24-B662-FF3B1F1021EF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E727C1B0-5A5C-4734-ACFA-748DB6A273DB}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4938,7 +4926,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5045,13 +5033,13 @@
         <v>878</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -5060,13 +5048,13 @@
         <v>159</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -5075,13 +5063,13 @@
         <v>1037</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5096,13 +5084,13 @@
         <v>35533</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H5" s="7">
         <v>90</v>
@@ -5111,13 +5099,13 @@
         <v>42611</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="M5" s="7">
         <v>141</v>
@@ -5126,13 +5114,13 @@
         <v>78144</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5200,13 +5188,13 @@
         <v>6939</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="H7" s="7">
         <v>11</v>
@@ -5215,13 +5203,13 @@
         <v>7036</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="M7" s="7">
         <v>17</v>
@@ -5230,13 +5218,13 @@
         <v>13975</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5251,13 +5239,13 @@
         <v>54554</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="H8" s="7">
         <v>100</v>
@@ -5266,13 +5254,13 @@
         <v>66305</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="M8" s="7">
         <v>152</v>
@@ -5281,13 +5269,13 @@
         <v>120859</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5355,13 +5343,13 @@
         <v>736</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -5370,13 +5358,13 @@
         <v>1696</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="M10" s="7">
         <v>4</v>
@@ -5385,13 +5373,13 @@
         <v>2432</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5406,13 +5394,13 @@
         <v>48288</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H11" s="7">
         <v>107</v>
@@ -5421,13 +5409,13 @@
         <v>61251</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="M11" s="7">
         <v>172</v>
@@ -5436,13 +5424,13 @@
         <v>109539</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5510,13 +5498,13 @@
         <v>5151</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="H13" s="7">
         <v>8</v>
@@ -5525,13 +5513,13 @@
         <v>3515</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="M13" s="7">
         <v>14</v>
@@ -5540,13 +5528,13 @@
         <v>8666</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>117</v>
+        <v>370</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5561,13 +5549,13 @@
         <v>48382</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="H14" s="7">
         <v>127</v>
@@ -5576,13 +5564,13 @@
         <v>64223</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="M14" s="7">
         <v>182</v>
@@ -5591,13 +5579,13 @@
         <v>112605</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>127</v>
+        <v>379</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5665,13 +5653,13 @@
         <v>2348</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="H16" s="7">
         <v>12</v>
@@ -5680,13 +5668,13 @@
         <v>4805</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="M16" s="7">
         <v>16</v>
@@ -5695,13 +5683,13 @@
         <v>7153</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5716,13 +5704,13 @@
         <v>38597</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="H17" s="7">
         <v>132</v>
@@ -5731,13 +5719,13 @@
         <v>53906</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="M17" s="7">
         <v>197</v>
@@ -5746,13 +5734,13 @@
         <v>92503</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5820,13 +5808,13 @@
         <v>4207</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="H19" s="7">
         <v>11</v>
@@ -5835,13 +5823,13 @@
         <v>4642</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="M19" s="7">
         <v>18</v>
@@ -5850,13 +5838,13 @@
         <v>8848</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5871,13 +5859,13 @@
         <v>54487</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="H20" s="7">
         <v>99</v>
@@ -5886,13 +5874,13 @@
         <v>43945</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="M20" s="7">
         <v>190</v>
@@ -5901,13 +5889,13 @@
         <v>98433</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5975,13 +5963,13 @@
         <v>12292</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>59</v>
+        <v>420</v>
       </c>
       <c r="H22" s="7">
         <v>28</v>
@@ -5990,13 +5978,13 @@
         <v>16401</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="M22" s="7">
         <v>42</v>
@@ -6005,13 +5993,13 @@
         <v>28693</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6026,13 +6014,13 @@
         <v>90213</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>68</v>
+        <v>428</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="H23" s="7">
         <v>175</v>
@@ -6041,13 +6029,13 @@
         <v>222551</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="M23" s="7">
         <v>278</v>
@@ -6056,13 +6044,13 @@
         <v>312763</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6130,13 +6118,13 @@
         <v>4623</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="H25" s="7">
         <v>21</v>
@@ -6145,13 +6133,13 @@
         <v>14248</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="M25" s="7">
         <v>25</v>
@@ -6160,13 +6148,13 @@
         <v>18871</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6181,13 +6169,13 @@
         <v>86294</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="H26" s="7">
         <v>148</v>
@@ -6196,13 +6184,13 @@
         <v>107641</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="M26" s="7">
         <v>251</v>
@@ -6211,13 +6199,13 @@
         <v>193935</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6285,13 +6273,13 @@
         <v>37173</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="H28" s="7">
         <v>95</v>
@@ -6300,13 +6288,13 @@
         <v>52503</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>375</v>
+        <v>458</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="M28" s="7">
         <v>138</v>
@@ -6315,13 +6303,13 @@
         <v>89676</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6336,13 +6324,13 @@
         <v>456349</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="H29" s="7">
         <v>978</v>
@@ -6351,13 +6339,13 @@
         <v>662432</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>384</v>
+        <v>468</v>
       </c>
       <c r="M29" s="7">
         <v>1563</v>
@@ -6366,13 +6354,13 @@
         <v>1118781</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6428,7 +6416,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14B04-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14B04-Provincia-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD41413C-19DB-4239-9586-58A3CC06DFD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A25F7AA-55F4-4038-BBE9-16398B432241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6D3F483B-D500-4AEC-9C0B-C2C3D937D18D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5571E307-A615-497B-91C3-12B06A71E142}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="474">
   <si>
     <t>Población cuyo colesterol alto le limita en 2012 (Tasa respuesta: 12,17%)</t>
   </si>
@@ -85,55 +85,55 @@
     <t>53,45%</t>
   </si>
   <si>
-    <t>39,2%</t>
-  </si>
-  <si>
-    <t>67,12%</t>
+    <t>40,77%</t>
+  </si>
+  <si>
+    <t>66,9%</t>
   </si>
   <si>
     <t>60,42%</t>
   </si>
   <si>
-    <t>48,6%</t>
-  </si>
-  <si>
-    <t>71,74%</t>
+    <t>48,88%</t>
+  </si>
+  <si>
+    <t>71,11%</t>
   </si>
   <si>
     <t>57,3%</t>
   </si>
   <si>
-    <t>49,17%</t>
-  </si>
-  <si>
-    <t>66,49%</t>
+    <t>48,7%</t>
+  </si>
+  <si>
+    <t>65,26%</t>
   </si>
   <si>
     <t>46,55%</t>
   </si>
   <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>60,8%</t>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>59,23%</t>
   </si>
   <si>
     <t>39,58%</t>
   </si>
   <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>51,4%</t>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>51,12%</t>
   </si>
   <si>
     <t>42,7%</t>
   </si>
   <si>
-    <t>33,51%</t>
-  </si>
-  <si>
-    <t>50,83%</t>
+    <t>34,74%</t>
+  </si>
+  <si>
+    <t>51,3%</t>
   </si>
   <si>
     <t>100%</t>
@@ -145,55 +145,55 @@
     <t>28,91%</t>
   </si>
   <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>46,02%</t>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>47,32%</t>
   </si>
   <si>
     <t>24,88%</t>
   </si>
   <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>41,22%</t>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>40,71%</t>
   </si>
   <si>
     <t>26,64%</t>
   </si>
   <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>37,96%</t>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>38,28%</t>
   </si>
   <si>
     <t>71,09%</t>
   </si>
   <si>
-    <t>53,98%</t>
-  </si>
-  <si>
-    <t>85,13%</t>
+    <t>52,68%</t>
+  </si>
+  <si>
+    <t>85,44%</t>
   </si>
   <si>
     <t>75,12%</t>
   </si>
   <si>
-    <t>58,78%</t>
-  </si>
-  <si>
-    <t>87,27%</t>
+    <t>59,29%</t>
+  </si>
+  <si>
+    <t>86,68%</t>
   </si>
   <si>
     <t>73,36%</t>
   </si>
   <si>
-    <t>62,04%</t>
-  </si>
-  <si>
-    <t>82,27%</t>
+    <t>61,72%</t>
+  </si>
+  <si>
+    <t>82,96%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -202,55 +202,55 @@
     <t>17,19%</t>
   </si>
   <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
   </si>
   <si>
     <t>20,41%</t>
   </si>
   <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
   </si>
   <si>
     <t>18,99%</t>
   </si>
   <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
   </si>
   <si>
     <t>82,81%</t>
   </si>
   <si>
-    <t>72,2%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
+    <t>70,79%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
   </si>
   <si>
     <t>79,59%</t>
   </si>
   <si>
-    <t>70,22%</t>
-  </si>
-  <si>
-    <t>86,91%</t>
+    <t>70,52%</t>
+  </si>
+  <si>
+    <t>87,28%</t>
   </si>
   <si>
     <t>81,01%</t>
   </si>
   <si>
-    <t>73,95%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
+    <t>74,21%</t>
+  </si>
+  <si>
+    <t>86,6%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -259,55 +259,55 @@
     <t>15,66%</t>
   </si>
   <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>33,86%</t>
   </si>
   <si>
     <t>10,21%</t>
   </si>
   <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
   </si>
   <si>
     <t>12,5%</t>
   </si>
   <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
   </si>
   <si>
     <t>84,34%</t>
   </si>
   <si>
-    <t>68,29%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
+    <t>66,14%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
   </si>
   <si>
     <t>89,79%</t>
   </si>
   <si>
-    <t>78,79%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
+    <t>76,63%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
   </si>
   <si>
     <t>87,5%</t>
   </si>
   <si>
-    <t>77,94%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
+    <t>77,62%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -316,19 +316,19 @@
     <t>13,35%</t>
   </si>
   <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
   </si>
   <si>
     <t>10,2%</t>
   </si>
   <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
   </si>
   <si>
     <t>11,67%</t>
@@ -337,31 +337,31 @@
     <t>6,22%</t>
   </si>
   <si>
-    <t>21,09%</t>
+    <t>19,77%</t>
   </si>
   <si>
     <t>86,65%</t>
   </si>
   <si>
-    <t>75,21%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
+    <t>72,52%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
   </si>
   <si>
     <t>89,8%</t>
   </si>
   <si>
-    <t>77,21%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
+    <t>77,25%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
   </si>
   <si>
     <t>88,33%</t>
   </si>
   <si>
-    <t>78,91%</t>
+    <t>80,23%</t>
   </si>
   <si>
     <t>93,78%</t>
@@ -373,622 +373,640 @@
     <t>12,31%</t>
   </si>
   <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
   </si>
   <si>
     <t>10,97%</t>
   </si>
   <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
   </si>
   <si>
     <t>11,62%</t>
   </si>
   <si>
-    <t>7,38%</t>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>87,69%</t>
+  </si>
+  <si>
+    <t>78,67%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>89,03%</t>
+  </si>
+  <si>
+    <t>79,38%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
+  </si>
+  <si>
+    <t>82,76%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>41,14%</t>
+  </si>
+  <si>
+    <t>41,92%</t>
+  </si>
+  <si>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>53,52%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>43,68%</t>
+  </si>
+  <si>
+    <t>72,33%</t>
+  </si>
+  <si>
+    <t>58,86%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
+  </si>
+  <si>
+    <t>58,08%</t>
+  </si>
+  <si>
+    <t>46,48%</t>
+  </si>
+  <si>
+    <t>67,79%</t>
+  </si>
+  <si>
+    <t>63,94%</t>
+  </si>
+  <si>
+    <t>56,32%</t>
+  </si>
+  <si>
+    <t>71,33%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>75,19%</t>
+  </si>
+  <si>
+    <t>70,62%</t>
+  </si>
+  <si>
+    <t>79,9%</t>
+  </si>
+  <si>
+    <t>71,66%</t>
+  </si>
+  <si>
+    <t>67,37%</t>
+  </si>
+  <si>
+    <t>75,66%</t>
+  </si>
+  <si>
+    <t>73,23%</t>
+  </si>
+  <si>
+    <t>69,77%</t>
+  </si>
+  <si>
+    <t>76,37%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población cuyo colesterol alto le limita en 2016 (Tasa respuesta: 12,06%)</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>89,86%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>85,46%</t>
+  </si>
+  <si>
+    <t>68,55%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>34,35%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>77,9%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
+  </si>
+  <si>
+    <t>65,65%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>77,73%</t>
+  </si>
+  <si>
+    <t>70,06%</t>
+  </si>
+  <si>
+    <t>85,16%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>81,34%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
+  </si>
+  <si>
+    <t>70,95%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>72,69%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>85,45%</t>
+  </si>
+  <si>
+    <t>77,66%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>45,86%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>37,86%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>72,0%</t>
+  </si>
+  <si>
+    <t>54,14%</t>
+  </si>
+  <si>
+    <t>86,17%</t>
+  </si>
+  <si>
+    <t>78,69%</t>
+  </si>
+  <si>
+    <t>62,14%</t>
+  </si>
+  <si>
+    <t>90,82%</t>
+  </si>
+  <si>
+    <t>75,62%</t>
+  </si>
+  <si>
+    <t>63,88%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>45,67%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>41,75%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>72,97%</t>
+  </si>
+  <si>
+    <t>54,33%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>77,07%</t>
+  </si>
+  <si>
+    <t>58,25%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
+  </si>
+  <si>
+    <t>75,09%</t>
+  </si>
+  <si>
+    <t>61,15%</t>
+  </si>
+  <si>
+    <t>85,12%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>35,34%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>64,66%</t>
+  </si>
+  <si>
+    <t>86,84%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>83,31%</t>
+  </si>
+  <si>
+    <t>75,67%</t>
+  </si>
+  <si>
+    <t>88,71%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>77,05%</t>
+  </si>
+  <si>
+    <t>66,79%</t>
+  </si>
+  <si>
+    <t>86,01%</t>
+  </si>
+  <si>
+    <t>78,64%</t>
+  </si>
+  <si>
+    <t>69,55%</t>
+  </si>
+  <si>
+    <t>85,96%</t>
+  </si>
+  <si>
+    <t>77,99%</t>
+  </si>
+  <si>
+    <t>70,81%</t>
+  </si>
+  <si>
+    <t>83,13%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
   </si>
   <si>
     <t>17,58%</t>
   </si>
   <si>
-    <t>87,69%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>89,03%</t>
-  </si>
-  <si>
-    <t>80,0%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>88,38%</t>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>81,1%</t>
+  </si>
+  <si>
+    <t>76,79%</t>
+  </si>
+  <si>
+    <t>84,25%</t>
+  </si>
+  <si>
+    <t>83,51%</t>
+  </si>
+  <si>
+    <t>79,53%</t>
+  </si>
+  <si>
+    <t>86,73%</t>
   </si>
   <si>
     <t>82,42%</t>
   </si>
   <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>40,49%</t>
-  </si>
-  <si>
-    <t>41,92%</t>
-  </si>
-  <si>
-    <t>51,8%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>44,7%</t>
-  </si>
-  <si>
-    <t>72,33%</t>
-  </si>
-  <si>
-    <t>59,51%</t>
-  </si>
-  <si>
-    <t>83,1%</t>
-  </si>
-  <si>
-    <t>58,08%</t>
-  </si>
-  <si>
-    <t>48,2%</t>
-  </si>
-  <si>
-    <t>63,94%</t>
-  </si>
-  <si>
-    <t>55,3%</t>
-  </si>
-  <si>
-    <t>71,62%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>75,19%</t>
-  </si>
-  <si>
-    <t>70,13%</t>
-  </si>
-  <si>
-    <t>79,36%</t>
-  </si>
-  <si>
-    <t>71,66%</t>
-  </si>
-  <si>
-    <t>67,55%</t>
-  </si>
-  <si>
-    <t>75,81%</t>
-  </si>
-  <si>
-    <t>73,23%</t>
-  </si>
-  <si>
-    <t>70,15%</t>
-  </si>
-  <si>
-    <t>76,14%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población cuyo colesterol alto le limita en 2015 (Tasa respuesta: 12,06%)</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>85,46%</t>
-  </si>
-  <si>
-    <t>69,94%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>81,0%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>34,97%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>29,86%</t>
-  </si>
-  <si>
-    <t>77,9%</t>
-  </si>
-  <si>
-    <t>65,03%</t>
-  </si>
-  <si>
-    <t>87,1%</t>
-  </si>
-  <si>
-    <t>77,6%</t>
-  </si>
-  <si>
-    <t>66,4%</t>
-  </si>
-  <si>
-    <t>77,73%</t>
-  </si>
-  <si>
-    <t>70,14%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>80,57%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>72,01%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>73,32%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>85,45%</t>
-  </si>
-  <si>
-    <t>77,3%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>45,86%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>37,04%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>36,01%</t>
-  </si>
-  <si>
-    <t>72,0%</t>
-  </si>
-  <si>
-    <t>54,14%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>78,69%</t>
-  </si>
-  <si>
-    <t>62,96%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>75,62%</t>
-  </si>
-  <si>
-    <t>63,99%</t>
-  </si>
-  <si>
-    <t>85,31%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>46,93%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>72,97%</t>
-  </si>
-  <si>
-    <t>53,07%</t>
-  </si>
-  <si>
-    <t>86,81%</t>
-  </si>
-  <si>
-    <t>77,07%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
-  </si>
-  <si>
-    <t>75,09%</t>
-  </si>
-  <si>
-    <t>63,4%</t>
-  </si>
-  <si>
-    <t>85,22%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>77,25%</t>
-  </si>
-  <si>
-    <t>65,0%</t>
-  </si>
-  <si>
-    <t>86,97%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>79,55%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>83,31%</t>
-  </si>
-  <si>
-    <t>76,07%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>77,05%</t>
-  </si>
-  <si>
-    <t>67,04%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>78,64%</t>
-  </si>
-  <si>
-    <t>69,04%</t>
-  </si>
-  <si>
-    <t>85,42%</t>
-  </si>
-  <si>
-    <t>77,99%</t>
-  </si>
-  <si>
-    <t>71,47%</t>
-  </si>
-  <si>
-    <t>84,09%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>81,1%</t>
-  </si>
-  <si>
-    <t>76,89%</t>
-  </si>
-  <si>
-    <t>84,71%</t>
-  </si>
-  <si>
-    <t>83,51%</t>
-  </si>
-  <si>
-    <t>79,53%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>79,61%</t>
-  </si>
-  <si>
-    <t>85,08%</t>
+    <t>79,83%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
   </si>
   <si>
     <t>Población cuyo colesterol alto le limita en 2023 (Tasa respuesta: 19,46%)</t>
@@ -1141,9 +1159,6 @@
     <t>21,18%</t>
   </si>
   <si>
-    <t>5,19%</t>
-  </si>
-  <si>
     <t>2,43%</t>
   </si>
   <si>
@@ -1168,9 +1183,6 @@
     <t>96,5%</t>
   </si>
   <si>
-    <t>94,81%</t>
-  </si>
-  <si>
     <t>90,39%</t>
   </si>
   <si>
@@ -1408,9 +1420,6 @@
     <t>5,5%</t>
   </si>
   <si>
-    <t>10,13%</t>
-  </si>
-  <si>
     <t>7,34%</t>
   </si>
   <si>
@@ -1430,9 +1439,6 @@
   </si>
   <si>
     <t>92,47%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
   </si>
   <si>
     <t>94,5%</t>
@@ -1865,7 +1871,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9154E6CE-4E93-4796-B9EE-1822786B7D99}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15FE5290-1B18-45F7-903E-E358EFE0DA3B}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3074,10 +3080,10 @@
         <v>132</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>74</v>
+        <v>133</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M25" s="7">
         <v>52</v>
@@ -3086,13 +3092,13 @@
         <v>57509</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3107,13 +3113,13 @@
         <v>47486</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H26" s="7">
         <v>50</v>
@@ -3122,13 +3128,13 @@
         <v>54502</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>82</v>
+        <v>143</v>
       </c>
       <c r="M26" s="7">
         <v>93</v>
@@ -3137,13 +3143,13 @@
         <v>101988</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3211,13 +3217,13 @@
         <v>95952</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H28" s="7">
         <v>125</v>
@@ -3226,13 +3232,13 @@
         <v>136860</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="M28" s="7">
         <v>212</v>
@@ -3241,13 +3247,13 @@
         <v>232812</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3262,13 +3268,13 @@
         <v>290719</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H29" s="7">
         <v>319</v>
@@ -3277,13 +3283,13 @@
         <v>346090</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="M29" s="7">
         <v>580</v>
@@ -3292,13 +3298,13 @@
         <v>636809</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3354,7 +3360,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -3378,7 +3384,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B3B5450-7289-437F-99D2-7C35C065BF17}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76A68EFD-2451-40E1-9486-B3B96C1C0A7B}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3395,7 +3401,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3502,13 +3508,13 @@
         <v>802</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -3517,13 +3523,13 @@
         <v>5767</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -3532,13 +3538,13 @@
         <v>6569</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3553,13 +3559,13 @@
         <v>36504</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H5" s="7">
         <v>31</v>
@@ -3568,13 +3574,13 @@
         <v>33885</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M5" s="7">
         <v>64</v>
@@ -3583,13 +3589,13 @@
         <v>70389</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3657,13 +3663,13 @@
         <v>12747</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>185</v>
+        <v>24</v>
       </c>
       <c r="H7" s="7">
         <v>14</v>
@@ -3672,13 +3678,13 @@
         <v>16588</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="M7" s="7">
         <v>27</v>
@@ -3687,13 +3693,13 @@
         <v>29335</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3708,13 +3714,13 @@
         <v>44921</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>192</v>
+        <v>16</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H8" s="7">
         <v>50</v>
@@ -3723,13 +3729,13 @@
         <v>57479</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="M8" s="7">
         <v>94</v>
@@ -3738,13 +3744,13 @@
         <v>102399</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3812,13 +3818,13 @@
         <v>3365</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -3827,13 +3833,13 @@
         <v>991</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -3842,13 +3848,13 @@
         <v>4356</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3863,13 +3869,13 @@
         <v>37741</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H11" s="7">
         <v>43</v>
@@ -3878,13 +3884,13 @@
         <v>48869</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M11" s="7">
         <v>84</v>
@@ -3893,13 +3899,13 @@
         <v>86610</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3967,13 +3973,13 @@
         <v>6858</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="H13" s="7">
         <v>7</v>
@@ -3982,13 +3988,13 @@
         <v>8098</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="M13" s="7">
         <v>14</v>
@@ -3997,13 +4003,13 @@
         <v>14957</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4018,13 +4024,13 @@
         <v>39609</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>198</v>
+        <v>226</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="H14" s="7">
         <v>43</v>
@@ -4033,13 +4039,13 @@
         <v>48235</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="M14" s="7">
         <v>84</v>
@@ -4048,13 +4054,13 @@
         <v>87844</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4122,13 +4128,13 @@
         <v>7671</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -4137,13 +4143,13 @@
         <v>6869</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="M16" s="7">
         <v>15</v>
@@ -4152,13 +4158,13 @@
         <v>14540</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4173,13 +4179,13 @@
         <v>19724</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="H17" s="7">
         <v>25</v>
@@ -4188,13 +4194,13 @@
         <v>25365</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="M17" s="7">
         <v>45</v>
@@ -4203,13 +4209,13 @@
         <v>45089</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4277,13 +4283,13 @@
         <v>7395</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="H19" s="7">
         <v>6</v>
@@ -4292,13 +4298,13 @@
         <v>6740</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>132</v>
+        <v>258</v>
       </c>
       <c r="M19" s="7">
         <v>14</v>
@@ -4307,13 +4313,13 @@
         <v>14135</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4328,13 +4334,13 @@
         <v>19961</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="H20" s="7">
         <v>21</v>
@@ -4343,13 +4349,13 @@
         <v>22657</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>140</v>
+        <v>266</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="M20" s="7">
         <v>41</v>
@@ -4358,13 +4364,13 @@
         <v>42618</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4432,13 +4438,13 @@
         <v>16394</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>265</v>
+        <v>96</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="H22" s="7">
         <v>7</v>
@@ -4447,13 +4453,13 @@
         <v>7745</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="M22" s="7">
         <v>21</v>
@@ -4462,13 +4468,13 @@
         <v>24139</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4483,13 +4489,13 @@
         <v>55668</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>274</v>
+        <v>104</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="H23" s="7">
         <v>56</v>
@@ -4498,13 +4504,13 @@
         <v>64822</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="M23" s="7">
         <v>106</v>
@@ -4513,13 +4519,13 @@
         <v>120489</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4587,13 +4593,13 @@
         <v>18233</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="H25" s="7">
         <v>20</v>
@@ -4602,13 +4608,13 @@
         <v>24611</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="M25" s="7">
         <v>38</v>
@@ -4617,13 +4623,13 @@
         <v>42844</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4638,13 +4644,13 @@
         <v>61205</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="H26" s="7">
         <v>75</v>
@@ -4653,13 +4659,13 @@
         <v>90617</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="M26" s="7">
         <v>134</v>
@@ -4668,13 +4674,13 @@
         <v>151823</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4742,13 +4748,13 @@
         <v>73465</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="H28" s="7">
         <v>67</v>
@@ -4757,13 +4763,13 @@
         <v>77410</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="M28" s="7">
         <v>140</v>
@@ -4772,13 +4778,13 @@
         <v>150875</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>118</v>
+        <v>311</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4793,13 +4799,13 @@
         <v>315333</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="H29" s="7">
         <v>344</v>
@@ -4808,13 +4814,13 @@
         <v>391928</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="M29" s="7">
         <v>652</v>
@@ -4823,13 +4829,13 @@
         <v>707261</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>126</v>
+        <v>320</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4885,7 +4891,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -4909,7 +4915,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E727C1B0-5A5C-4734-ACFA-748DB6A273DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8EEE26F-64F9-4193-87F8-DDDA1D84CB5E}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4926,7 +4932,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5033,13 +5039,13 @@
         <v>878</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -5048,13 +5054,13 @@
         <v>159</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -5063,13 +5069,13 @@
         <v>1037</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5084,13 +5090,13 @@
         <v>35533</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H5" s="7">
         <v>90</v>
@@ -5099,13 +5105,13 @@
         <v>42611</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M5" s="7">
         <v>141</v>
@@ -5114,13 +5120,13 @@
         <v>78144</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5188,13 +5194,13 @@
         <v>6939</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="H7" s="7">
         <v>11</v>
@@ -5203,13 +5209,13 @@
         <v>7036</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="M7" s="7">
         <v>17</v>
@@ -5218,13 +5224,13 @@
         <v>13975</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5239,13 +5245,13 @@
         <v>54554</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="H8" s="7">
         <v>100</v>
@@ -5254,13 +5260,13 @@
         <v>66305</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="M8" s="7">
         <v>152</v>
@@ -5269,13 +5275,13 @@
         <v>120859</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5343,13 +5349,13 @@
         <v>736</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -5358,13 +5364,13 @@
         <v>1696</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="M10" s="7">
         <v>4</v>
@@ -5373,13 +5379,13 @@
         <v>2432</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5394,13 +5400,13 @@
         <v>48288</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H11" s="7">
         <v>107</v>
@@ -5409,13 +5415,13 @@
         <v>61251</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="M11" s="7">
         <v>172</v>
@@ -5424,13 +5430,13 @@
         <v>109539</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5498,13 +5504,13 @@
         <v>5151</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="H13" s="7">
         <v>8</v>
@@ -5513,13 +5519,13 @@
         <v>3515</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>367</v>
+        <v>92</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="M13" s="7">
         <v>14</v>
@@ -5528,13 +5534,13 @@
         <v>8666</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5549,13 +5555,13 @@
         <v>48382</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="H14" s="7">
         <v>127</v>
@@ -5564,13 +5570,13 @@
         <v>64223</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>376</v>
+        <v>102</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="M14" s="7">
         <v>182</v>
@@ -5579,13 +5585,13 @@
         <v>112605</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5653,13 +5659,13 @@
         <v>2348</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="H16" s="7">
         <v>12</v>
@@ -5668,13 +5674,13 @@
         <v>4805</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="M16" s="7">
         <v>16</v>
@@ -5683,13 +5689,13 @@
         <v>7153</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5704,13 +5710,13 @@
         <v>38597</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="H17" s="7">
         <v>132</v>
@@ -5719,13 +5725,13 @@
         <v>53906</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="M17" s="7">
         <v>197</v>
@@ -5734,13 +5740,13 @@
         <v>92503</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5808,13 +5814,13 @@
         <v>4207</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="H19" s="7">
         <v>11</v>
@@ -5823,13 +5829,13 @@
         <v>4642</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="M19" s="7">
         <v>18</v>
@@ -5838,13 +5844,13 @@
         <v>8848</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5859,13 +5865,13 @@
         <v>54487</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="H20" s="7">
         <v>99</v>
@@ -5874,13 +5880,13 @@
         <v>43945</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="M20" s="7">
         <v>190</v>
@@ -5889,13 +5895,13 @@
         <v>98433</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5963,13 +5969,13 @@
         <v>12292</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="H22" s="7">
         <v>28</v>
@@ -5978,13 +5984,13 @@
         <v>16401</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="M22" s="7">
         <v>42</v>
@@ -5993,13 +5999,13 @@
         <v>28693</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6014,13 +6020,13 @@
         <v>90213</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="H23" s="7">
         <v>175</v>
@@ -6029,13 +6035,13 @@
         <v>222551</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="M23" s="7">
         <v>278</v>
@@ -6044,13 +6050,13 @@
         <v>312763</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6118,13 +6124,13 @@
         <v>4623</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="H25" s="7">
         <v>21</v>
@@ -6133,13 +6139,13 @@
         <v>14248</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="M25" s="7">
         <v>25</v>
@@ -6148,13 +6154,13 @@
         <v>18871</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6169,13 +6175,13 @@
         <v>86294</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="H26" s="7">
         <v>148</v>
@@ -6184,13 +6190,13 @@
         <v>107641</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="M26" s="7">
         <v>251</v>
@@ -6199,13 +6205,13 @@
         <v>193935</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6273,13 +6279,13 @@
         <v>37173</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>456</v>
+        <v>208</v>
       </c>
       <c r="H28" s="7">
         <v>95</v>
@@ -6288,13 +6294,13 @@
         <v>52503</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="M28" s="7">
         <v>138</v>
@@ -6303,13 +6309,13 @@
         <v>89676</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6324,13 +6330,13 @@
         <v>456349</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>464</v>
+        <v>215</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="H29" s="7">
         <v>978</v>
@@ -6339,13 +6345,13 @@
         <v>662432</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="M29" s="7">
         <v>1563</v>
@@ -6354,13 +6360,13 @@
         <v>1118781</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6416,7 +6422,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
